--- a/tools/excel/DB-Design.xlsx
+++ b/tools/excel/DB-Design.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/unnous/My/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/unnous/project/git-clone/Document/tools/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA875BD-7C49-1D48-9185-DA1951D7E315}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734FC20A-B9DD-5F4C-80F2-DB052C200EE1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="460" windowWidth="27940" windowHeight="17480" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="860" yWindow="460" windowWidth="27940" windowHeight="17480" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="变更履历" sheetId="1" r:id="rId1"/>
@@ -536,6 +536,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -550,9 +553,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -855,8 +855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B2A676B-77D8-394A-B2F4-4ED8A5B66012}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -870,14 +870,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="28" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
@@ -938,7 +938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E1BC55-F475-5444-B2B1-3D8210E5634E}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView zoomScale="104" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="104" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -956,51 +956,51 @@
       <c r="A1" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
       <c r="D1" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="29"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="24" t="str">
+      <c r="B2" s="25" t="str">
         <f>index!C3</f>
         <v>T_DEMO</v>
       </c>
-      <c r="C2" s="24"/>
+      <c r="C2" s="25"/>
       <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="24" t="str">
+      <c r="E2" s="25" t="str">
         <f>index!D3</f>
         <v>表设计案例</v>
       </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="26"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="24">
+      <c r="B3" s="25">
         <f>index!E3</f>
         <v>1000000</v>
       </c>
-      <c r="C3" s="24"/>
+      <c r="C3" s="25"/>
       <c r="D3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="26"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
@@ -1054,7 +1054,7 @@
         <v>20</v>
       </c>
       <c r="C6" s="8">
-        <v>255</v>
+        <v>100</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>45</v>

--- a/tools/excel/DB-Design.xlsx
+++ b/tools/excel/DB-Design.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/unnous/project/git-clone/Document/tools/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{734FC20A-B9DD-5F4C-80F2-DB052C200EE1}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6086152D-2B37-5B4F-A2B4-D89D6803933B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="460" windowWidth="27940" windowHeight="17480" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="860" yWindow="460" windowWidth="27940" windowHeight="17480" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="变更履历" sheetId="1" r:id="rId1"/>
     <sheet name="index" sheetId="2" r:id="rId2"/>
     <sheet name="demo" sheetId="3" r:id="rId3"/>
+    <sheet name="demo2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="52">
   <si>
     <t>数据量估算</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -217,6 +218,18 @@
   </si>
   <si>
     <t>CURRENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>demo2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_DEMO_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表设计案例2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -224,7 +237,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -263,6 +276,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -323,21 +345,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color theme="2" tint="-9.9948118533890809E-2"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="2" tint="-9.9948118533890809E-2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -460,12 +467,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -500,59 +520,62 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -853,31 +876,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B2A676B-77D8-394A-B2F4-4ED8A5B66012}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="28" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
@@ -916,6 +939,96 @@
       <c r="F3" s="2" t="s">
         <v>43</v>
       </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="30"/>
+      <c r="B4" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -923,12 +1036,13 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3" xr:uid="{E233248C-31BF-6046-8A62-ABFC7820BE0C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F4" xr:uid="{E233248C-31BF-6046-8A62-ABFC7820BE0C}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="B3" location="demo!A1" display="demo" xr:uid="{9F9E201A-76D7-8940-8BC4-49D9F26073D9}"/>
+    <hyperlink ref="B4" location="demo2!A1" display="demo" xr:uid="{D9748B52-F9CC-1549-93E3-7B7B4C20E431}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -938,7 +1052,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E1BC55-F475-5444-B2B1-3D8210E5634E}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="104" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -953,57 +1069,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="13" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="29"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="28"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="25" t="str">
+      <c r="B2" s="24" t="str">
         <f>index!C3</f>
         <v>T_DEMO</v>
       </c>
-      <c r="C2" s="25"/>
+      <c r="C2" s="24"/>
       <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="25" t="str">
+      <c r="E2" s="24" t="str">
         <f>index!D3</f>
         <v>表设计案例</v>
       </c>
-      <c r="F2" s="25"/>
-      <c r="G2" s="26"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="25"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="25">
+      <c r="B3" s="24">
         <f>index!E3</f>
         <v>1000000</v>
       </c>
-      <c r="C3" s="25"/>
+      <c r="C3" s="24"/>
       <c r="D3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="26"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="25"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1021,12 +1137,12 @@
       <c r="F4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="14" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -1042,12 +1158,12 @@
       <c r="F5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="17" t="s">
         <v>44</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -1061,12 +1177,12 @@
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="18" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="15" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -1080,12 +1196,12 @@
         <v>1</v>
       </c>
       <c r="F7" s="5"/>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="15" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1101,12 +1217,12 @@
       <c r="F8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="17" t="s">
+      <c r="G8" s="16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -1118,12 +1234,12 @@
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="16" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -1135,12 +1251,12 @@
         <v>48</v>
       </c>
       <c r="F10" s="5"/>
-      <c r="G10" s="17" t="s">
+      <c r="G10" s="16" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -1152,22 +1268,22 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="16" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="23" t="s">
+      <c r="C12" s="21"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="22" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1200,4 +1316,270 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBC0852A-2B9C-914E-927B-073585928E13}">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="27"/>
+      <c r="G1" s="28"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="24" t="str">
+        <f>index!C4</f>
+        <v>T_DEMO_2</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="24" t="str">
+        <f>index!D4</f>
+        <v>表设计案例2</v>
+      </c>
+      <c r="F2" s="24"/>
+      <c r="G2" s="25"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="24">
+        <f>index!E4</f>
+        <v>1000000</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="25"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="8">
+        <v>100</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="6">
+        <v>64</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="6">
+        <v>64</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="21"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="E3:G3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B12" xr:uid="{188FCB49-E5F1-B44D-BB79-E24DF56219EC}">
+      <formula1>"TINYINT,INT,BIGINT,DECIMAL,CHAR,VARCHAR,TEXT,LONGTEXT,BLOB,DATE,DATETIME,TIMESTAMP"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D12" xr:uid="{85226A0E-E5BA-814E-B94E-0BD37E7FCF5B}">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5" xr:uid="{B986C3BE-DF9F-924B-83F8-091C654AD515}">
+      <formula1>" ,PRIMARY,INDEX,UNIQUE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F12" xr:uid="{A3581B6E-9270-0540-B668-A766AAE34C61}">
+      <formula1>"PRIMARY,INDEX,UNIQUE"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="A1" location="index!A1" display="返回表索引" xr:uid="{59D6B6B5-D913-8047-87A9-8ADA2B21E039}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tools/excel/DB-Design.xlsx
+++ b/tools/excel/DB-Design.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/unnous/project/git-clone/Document/tools/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6086152D-2B37-5B4F-A2B4-D89D6803933B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D13DF8-E0E5-6544-874B-B958BFF168CD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="460" windowWidth="27940" windowHeight="17480" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="860" yWindow="460" windowWidth="27940" windowHeight="17480" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="变更履历" sheetId="1" r:id="rId1"/>
@@ -306,7 +306,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -480,12 +480,99 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9948118533890809E-2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -553,6 +640,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -571,10 +664,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -878,8 +992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B2A676B-77D8-394A-B2F4-4ED8A5B66012}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView zoomScale="115" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -893,14 +1007,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="28" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
@@ -941,7 +1055,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="30"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="11" t="s">
         <v>49</v>
       </c>
@@ -1050,10 +1164,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E1BC55-F475-5444-B2B1-3D8210E5634E}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1069,57 +1183,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
       <c r="D1" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="30"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="24" t="str">
+      <c r="B2" s="26" t="str">
         <f>index!C3</f>
         <v>T_DEMO</v>
       </c>
-      <c r="C2" s="24"/>
+      <c r="C2" s="26"/>
       <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="24" t="str">
+      <c r="E2" s="26" t="str">
         <f>index!D3</f>
         <v>表设计案例</v>
       </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="25"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="24">
+      <c r="B3" s="36">
         <f>index!E3</f>
         <v>1000000</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="36"/>
+      <c r="D3" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="25"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="38"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1137,28 +1251,28 @@
       <c r="F4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="5" t="s">
+      <c r="C5" s="33"/>
+      <c r="D5" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="34" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1286,6 +1400,9 @@
       <c r="G12" s="22" t="s">
         <v>25</v>
       </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D15" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1322,7 +1439,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBC0852A-2B9C-914E-927B-073585928E13}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1335,54 +1454,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
       <c r="D1" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="30"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="24" t="str">
+      <c r="B2" s="26" t="str">
         <f>index!C4</f>
         <v>T_DEMO_2</v>
       </c>
-      <c r="C2" s="24"/>
+      <c r="C2" s="26"/>
       <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="24" t="str">
+      <c r="E2" s="26" t="str">
         <f>index!D4</f>
         <v>表设计案例2</v>
       </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="25"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="24">
+      <c r="B3" s="26">
         <f>index!E4</f>
         <v>1000000</v>
       </c>
-      <c r="C3" s="24"/>
+      <c r="C3" s="26"/>
       <c r="D3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="25"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="27"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
